--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnfsf14-Tnfrsf14.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnfsf14-Tnfrsf14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Tnfsf14</t>
+  </si>
+  <si>
+    <t>Tnfrsf14</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Tnfsf14</t>
-  </si>
-  <si>
-    <t>Tnfrsf14</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>6.640791666666666</v>
+        <v>0.026451</v>
       </c>
       <c r="H2">
-        <v>19.922375</v>
+        <v>0.07935300000000001</v>
       </c>
       <c r="I2">
-        <v>0.7266950649462826</v>
+        <v>0.03137831605053874</v>
       </c>
       <c r="J2">
-        <v>0.7266950649462824</v>
+        <v>0.03137831605053873</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.593702666666666</v>
+        <v>4.901461666666667</v>
       </c>
       <c r="N2">
-        <v>16.781108</v>
+        <v>14.704385</v>
       </c>
       <c r="O2">
-        <v>0.1866080739693142</v>
+        <v>0.2124427850531459</v>
       </c>
       <c r="P2">
-        <v>0.1866080739693142</v>
+        <v>0.2124427850531459</v>
       </c>
       <c r="Q2">
-        <v>37.14661405461111</v>
+        <v>0.129648562545</v>
       </c>
       <c r="R2">
-        <v>334.3195264915</v>
+        <v>1.166837062905</v>
       </c>
       <c r="S2">
-        <v>0.1356071664326315</v>
+        <v>0.006666096852054278</v>
       </c>
       <c r="T2">
-        <v>0.1356071664326315</v>
+        <v>0.006666096852054278</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +584,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>6.640791666666666</v>
+        <v>0.026451</v>
       </c>
       <c r="H3">
-        <v>19.922375</v>
+        <v>0.07935300000000001</v>
       </c>
       <c r="I3">
-        <v>0.7266950649462826</v>
+        <v>0.03137831605053874</v>
       </c>
       <c r="J3">
-        <v>0.7266950649462824</v>
+        <v>0.03137831605053873</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>9.497398</v>
       </c>
       <c r="O3">
-        <v>0.105612284272291</v>
+        <v>0.1372144215401173</v>
       </c>
       <c r="P3">
-        <v>0.105612284272291</v>
+        <v>0.1372144215401173</v>
       </c>
       <c r="Q3">
-        <v>21.02341383113889</v>
+        <v>0.08373855816600001</v>
       </c>
       <c r="R3">
-        <v>189.21072448025</v>
+        <v>0.7536470234940001</v>
       </c>
       <c r="S3">
-        <v>0.07674792577837779</v>
+        <v>0.004305557485777651</v>
       </c>
       <c r="T3">
-        <v>0.07674792577837777</v>
+        <v>0.00430555748577765</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>6.640791666666666</v>
+        <v>0.026451</v>
       </c>
       <c r="H4">
-        <v>19.922375</v>
+        <v>0.07935300000000001</v>
       </c>
       <c r="I4">
-        <v>0.7266950649462826</v>
+        <v>0.03137831605053874</v>
       </c>
       <c r="J4">
-        <v>0.7266950649462824</v>
+        <v>0.03137831605053873</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.014792333333334</v>
+        <v>1.206743666666667</v>
       </c>
       <c r="N4">
-        <v>3.044377</v>
+        <v>3.620231</v>
       </c>
       <c r="O4">
-        <v>0.03385386283232782</v>
+        <v>0.05230357857032003</v>
       </c>
       <c r="P4">
-        <v>0.03385386283232782</v>
+        <v>0.05230357857032004</v>
       </c>
       <c r="Q4">
-        <v>6.739024470597223</v>
+        <v>0.031919576727</v>
       </c>
       <c r="R4">
-        <v>60.651220235375</v>
+        <v>0.287276190543</v>
       </c>
       <c r="S4">
-        <v>0.02460143504962101</v>
+        <v>0.001641198218953687</v>
       </c>
       <c r="T4">
-        <v>0.024601435049621</v>
+        <v>0.001641198218953687</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>6.640791666666666</v>
+        <v>0.026451</v>
       </c>
       <c r="H5">
-        <v>19.922375</v>
+        <v>0.07935300000000001</v>
       </c>
       <c r="I5">
-        <v>0.7266950649462826</v>
+        <v>0.03137831605053874</v>
       </c>
       <c r="J5">
-        <v>0.7266950649462824</v>
+        <v>0.03137831605053873</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.201379</v>
+        <v>13.79790933333333</v>
       </c>
       <c r="N5">
-        <v>60.60413699999999</v>
+        <v>41.393728</v>
       </c>
       <c r="O5">
-        <v>0.673925778926067</v>
+        <v>0.5980392148364168</v>
       </c>
       <c r="P5">
-        <v>0.6739257789260669</v>
+        <v>0.5980392148364169</v>
       </c>
       <c r="Q5">
-        <v>134.153149318375</v>
+        <v>0.364968499776</v>
       </c>
       <c r="R5">
-        <v>1207.378343865375</v>
+        <v>3.284716497984</v>
       </c>
       <c r="S5">
-        <v>0.4897385376856523</v>
+        <v>0.01876546349375312</v>
       </c>
       <c r="T5">
-        <v>0.4897385376856521</v>
+        <v>0.01876546349375312</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.026451</v>
+        <v>0.8165196666666666</v>
       </c>
       <c r="H6">
-        <v>0.07935299999999999</v>
+        <v>2.449559</v>
       </c>
       <c r="I6">
-        <v>0.002894505975752507</v>
+        <v>0.9686216839494612</v>
       </c>
       <c r="J6">
-        <v>0.002894505975752507</v>
+        <v>0.9686216839494611</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.593702666666666</v>
+        <v>4.901461666666667</v>
       </c>
       <c r="N6">
-        <v>16.781108</v>
+        <v>14.704385</v>
       </c>
       <c r="O6">
-        <v>0.1866080739693142</v>
+        <v>0.2124427850531459</v>
       </c>
       <c r="P6">
-        <v>0.1866080739693142</v>
+        <v>0.2124427850531459</v>
       </c>
       <c r="Q6">
-        <v>0.147959029236</v>
+        <v>4.002139846246111</v>
       </c>
       <c r="R6">
-        <v>1.331631263124</v>
+        <v>36.019258616215</v>
       </c>
       <c r="S6">
-        <v>0.000540138185227846</v>
+        <v>0.2057766882010916</v>
       </c>
       <c r="T6">
-        <v>0.0005401381852278459</v>
+        <v>0.2057766882010916</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.026451</v>
+        <v>0.8165196666666666</v>
       </c>
       <c r="H7">
-        <v>0.07935299999999999</v>
+        <v>2.449559</v>
       </c>
       <c r="I7">
-        <v>0.002894505975752507</v>
+        <v>0.9686216839494612</v>
       </c>
       <c r="J7">
-        <v>0.002894505975752507</v>
+        <v>0.9686216839494611</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>9.497398</v>
       </c>
       <c r="O7">
-        <v>0.105612284272291</v>
+        <v>0.1372144215401173</v>
       </c>
       <c r="P7">
-        <v>0.105612284272291</v>
+        <v>0.1372144215401173</v>
       </c>
       <c r="Q7">
-        <v>0.08373855816600001</v>
+        <v>2.584937416386889</v>
       </c>
       <c r="R7">
-        <v>0.7536470234939999</v>
+        <v>23.264436747482</v>
       </c>
       <c r="S7">
-        <v>0.0003056953879390189</v>
+        <v>0.1329088640543396</v>
       </c>
       <c r="T7">
-        <v>0.0003056953879390189</v>
+        <v>0.1329088640543396</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,31 +894,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.026451</v>
+        <v>0.8165196666666666</v>
       </c>
       <c r="H8">
-        <v>0.07935299999999999</v>
+        <v>2.449559</v>
       </c>
       <c r="I8">
-        <v>0.002894505975752507</v>
+        <v>0.9686216839494612</v>
       </c>
       <c r="J8">
-        <v>0.002894505975752507</v>
+        <v>0.9686216839494611</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.014792333333334</v>
+        <v>1.206743666666667</v>
       </c>
       <c r="N8">
-        <v>3.044377</v>
+        <v>3.620231</v>
       </c>
       <c r="O8">
-        <v>0.03385386283232782</v>
+        <v>0.05230357857032003</v>
       </c>
       <c r="P8">
-        <v>0.03385386283232782</v>
+        <v>0.05230357857032004</v>
       </c>
       <c r="Q8">
-        <v>0.026842272009</v>
+        <v>0.9853299364587778</v>
       </c>
       <c r="R8">
-        <v>0.241580448081</v>
+        <v>8.867969428128999</v>
       </c>
       <c r="S8">
-        <v>9.799020827047858E-05</v>
+        <v>0.05066238035136635</v>
       </c>
       <c r="T8">
-        <v>9.799020827047856E-05</v>
+        <v>0.05066238035136635</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +956,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.026451</v>
+        <v>0.8165196666666666</v>
       </c>
       <c r="H9">
-        <v>0.07935299999999999</v>
+        <v>2.449559</v>
       </c>
       <c r="I9">
-        <v>0.002894505975752507</v>
+        <v>0.9686216839494612</v>
       </c>
       <c r="J9">
-        <v>0.002894505975752507</v>
+        <v>0.9686216839494611</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,276 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.201379</v>
+        <v>13.79790933333333</v>
       </c>
       <c r="N9">
-        <v>60.60413699999999</v>
+        <v>41.393728</v>
       </c>
       <c r="O9">
-        <v>0.673925778926067</v>
+        <v>0.5980392148364168</v>
       </c>
       <c r="P9">
-        <v>0.6739257789260669</v>
+        <v>0.5980392148364169</v>
       </c>
       <c r="Q9">
-        <v>0.534346675929</v>
+        <v>11.26626432955022</v>
       </c>
       <c r="R9">
-        <v>4.809120083360999</v>
+        <v>101.396378965952</v>
       </c>
       <c r="S9">
-        <v>0.001950682194315164</v>
+        <v>0.5792737513426636</v>
       </c>
       <c r="T9">
-        <v>0.001950682194315163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>2.471104333333333</v>
-      </c>
-      <c r="H10">
-        <v>7.413313</v>
-      </c>
-      <c r="I10">
-        <v>0.2704104290779649</v>
-      </c>
-      <c r="J10">
-        <v>0.2704104290779649</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>5.593702666666666</v>
-      </c>
-      <c r="N10">
-        <v>16.781108</v>
-      </c>
-      <c r="O10">
-        <v>0.1866080739693142</v>
-      </c>
-      <c r="P10">
-        <v>0.1866080739693142</v>
-      </c>
-      <c r="Q10">
-        <v>13.82262289897822</v>
-      </c>
-      <c r="R10">
-        <v>124.403606090804</v>
-      </c>
-      <c r="S10">
-        <v>0.05046076935145487</v>
-      </c>
-      <c r="T10">
-        <v>0.05046076935145487</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>2.471104333333333</v>
-      </c>
-      <c r="H11">
-        <v>7.413313</v>
-      </c>
-      <c r="I11">
-        <v>0.2704104290779649</v>
-      </c>
-      <c r="J11">
-        <v>0.2704104290779649</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>3.165799333333334</v>
-      </c>
-      <c r="N11">
-        <v>9.497398</v>
-      </c>
-      <c r="O11">
-        <v>0.105612284272291</v>
-      </c>
-      <c r="P11">
-        <v>0.105612284272291</v>
-      </c>
-      <c r="Q11">
-        <v>7.823020451063779</v>
-      </c>
-      <c r="R11">
-        <v>70.40718405957401</v>
-      </c>
-      <c r="S11">
-        <v>0.02855866310597422</v>
-      </c>
-      <c r="T11">
-        <v>0.02855866310597422</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>2.471104333333333</v>
-      </c>
-      <c r="H12">
-        <v>7.413313</v>
-      </c>
-      <c r="I12">
-        <v>0.2704104290779649</v>
-      </c>
-      <c r="J12">
-        <v>0.2704104290779649</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1.014792333333334</v>
-      </c>
-      <c r="N12">
-        <v>3.044377</v>
-      </c>
-      <c r="O12">
-        <v>0.03385386283232782</v>
-      </c>
-      <c r="P12">
-        <v>0.03385386283232782</v>
-      </c>
-      <c r="Q12">
-        <v>2.507657732333445</v>
-      </c>
-      <c r="R12">
-        <v>22.56891959100101</v>
-      </c>
-      <c r="S12">
-        <v>0.009154437574436335</v>
-      </c>
-      <c r="T12">
-        <v>0.009154437574436333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.471104333333333</v>
-      </c>
-      <c r="H13">
-        <v>7.413313</v>
-      </c>
-      <c r="I13">
-        <v>0.2704104290779649</v>
-      </c>
-      <c r="J13">
-        <v>0.2704104290779649</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>20.201379</v>
-      </c>
-      <c r="N13">
-        <v>60.60413699999999</v>
-      </c>
-      <c r="O13">
-        <v>0.673925778926067</v>
-      </c>
-      <c r="P13">
-        <v>0.6739257789260669</v>
-      </c>
-      <c r="Q13">
-        <v>49.919715186209</v>
-      </c>
-      <c r="R13">
-        <v>449.277436675881</v>
-      </c>
-      <c r="S13">
-        <v>0.1822365590460995</v>
-      </c>
-      <c r="T13">
-        <v>0.1822365590460995</v>
+        <v>0.5792737513426637</v>
       </c>
     </row>
   </sheetData>
